--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaustuv\Traffic-Management-System-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -53,72 +53,72 @@
     <t xml:space="preserve">As a user, I will be able to login </t>
   </si>
   <si>
+    <t>User should be able to login with</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t xml:space="preserve">with username and password </t>
   </si>
   <si>
+    <t xml:space="preserve">their created user username and </t>
+  </si>
+  <si>
     <t xml:space="preserve">Created by myself so that I can </t>
   </si>
   <si>
-    <t>User should be able to login with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">their created user username and </t>
-  </si>
-  <si>
     <t xml:space="preserve">password to use the system </t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>High</t>
+    <t>retrive information and use the features.</t>
   </si>
   <si>
     <t xml:space="preserve">As a user, I will be able to view </t>
   </si>
   <si>
+    <t xml:space="preserve">User should be able to view the </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
     <t>the system so that I can be upto</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
     <t>date with the system</t>
   </si>
   <si>
-    <t xml:space="preserve">User should be able to view the </t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a user, I will be able to use </t>
   </si>
   <si>
+    <t xml:space="preserve">user should be able to use the </t>
+  </si>
+  <si>
     <t xml:space="preserve">various features provided by the </t>
   </si>
   <si>
-    <t xml:space="preserve">user should be able to use the </t>
-  </si>
-  <si>
     <t>features</t>
   </si>
   <si>
     <t xml:space="preserve">As a user, I will be able to Register </t>
   </si>
   <si>
+    <t xml:space="preserve">user should be able to register  </t>
+  </si>
+  <si>
     <t xml:space="preserve">my vehicle </t>
   </si>
   <si>
-    <t xml:space="preserve">user should be able to register  </t>
-  </si>
-  <si>
     <t xml:space="preserve">their vehicle </t>
   </si>
   <si>
+    <t xml:space="preserve">user should be able to use complain </t>
+  </si>
+  <si>
     <t xml:space="preserve">complain features which includes </t>
   </si>
   <si>
@@ -128,22 +128,19 @@
     <t>report</t>
   </si>
   <si>
-    <t xml:space="preserve">user should be able to use complain </t>
-  </si>
-  <si>
     <t xml:space="preserve">As a user, I will be able to view my </t>
   </si>
   <si>
+    <t xml:space="preserve">user should be able to view their </t>
+  </si>
+  <si>
     <t xml:space="preserve">offense data and can pay the offense </t>
   </si>
   <si>
+    <t>offense and can pay the offense fine</t>
+  </si>
+  <si>
     <t xml:space="preserve">fine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be able to view their </t>
-  </si>
-  <si>
-    <t>offense and can pay the offense fine</t>
   </si>
   <si>
     <r>
@@ -169,16 +166,31 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">As a Traffic police I will able to login to system as usename and password </t>
+  </si>
+  <si>
+    <t>Traffic should be able to login in the system</t>
+  </si>
+  <si>
+    <t>Provided by admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a traffic, I will be able to view the </t>
   </si>
   <si>
+    <t xml:space="preserve">Traffic should be able to view the </t>
+  </si>
+  <si>
     <t xml:space="preserve">offense </t>
   </si>
   <si>
-    <t xml:space="preserve">Traffic should be able to view the </t>
-  </si>
-  <si>
     <t xml:space="preserve">offense record </t>
+  </si>
+  <si>
+    <t>As a traffic I will be able to change my password</t>
+  </si>
+  <si>
+    <t>Traffic will able to update new password</t>
   </si>
   <si>
     <t xml:space="preserve">As a traffic, I will be able to record </t>
@@ -219,16 +231,34 @@
     </r>
   </si>
   <si>
+    <t>As a Admin, I will be able to login in  a system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin can uses the system </t>
+  </si>
+  <si>
     <t>As a Admin, I will be able to post</t>
   </si>
   <si>
+    <t>Admin should be able to post notices</t>
+  </si>
+  <si>
     <t>notices</t>
   </si>
   <si>
-    <t>Admin should be able to post notices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low </t>
+    <t xml:space="preserve">As a Admin, I will be able to add </t>
+  </si>
+  <si>
+    <t>Admin should be able to traffic police users</t>
+  </si>
+  <si>
+    <t>traffic police in a system</t>
+  </si>
+  <si>
+    <t>As a Admin, I will be able to selete</t>
+  </si>
+  <si>
+    <t>from system</t>
   </si>
   <si>
     <t xml:space="preserve">As a Admin, I wiil be able to view information in system </t>
@@ -237,49 +267,16 @@
     <t>Admin should be able to manage the data</t>
   </si>
   <si>
-    <t xml:space="preserve">Medium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Traffic police I will able to login to system as usename and password </t>
-  </si>
-  <si>
-    <t>Provided by admin</t>
-  </si>
-  <si>
-    <t>retrive information and use the features.</t>
-  </si>
-  <si>
-    <t>Traffic should be able to login in the system</t>
-  </si>
-  <si>
-    <t>As a traffic I will be able to change my password</t>
-  </si>
-  <si>
-    <t>Traffic will able to update new password</t>
-  </si>
-  <si>
-    <t>As a Admin, I will be able to login in  a system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin can uses the system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Admin, I will be able to add </t>
-  </si>
-  <si>
-    <t>traffic police in a system</t>
-  </si>
-  <si>
-    <t>Admin should be able to traffic police users</t>
-  </si>
-  <si>
-    <t>As a Admin, I will be able to selete</t>
-  </si>
-  <si>
-    <t>from system</t>
-  </si>
-  <si>
-    <t>completed</t>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should Have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could Have </t>
   </si>
 </sst>
 </file>
@@ -324,8 +321,8 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color rgb="FF9C6500"/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,8 +336,8 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,44 +440,45 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" activeCellId="4" sqref="I46:J46 I48:J48 I50:J50 I50:J50 I52:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,477 +786,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="3" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3" t="s">
+      <c r="F18" t="s">
         <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="3" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="3" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="3" t="s">
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="3" t="s">
-        <v>41</v>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="5"/>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="3" t="s">
-        <v>42</v>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>63</v>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -1266,10 +1265,10 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1278,139 +1277,138 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="3" t="s">
-        <v>45</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="3"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="5"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="3" t="s">
-        <v>42</v>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="3" t="s">
-        <v>41</v>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="5"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="3" t="s">
-        <v>48</v>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="5"/>
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -1419,158 +1417,165 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="3" t="s">
-        <v>51</v>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="5"/>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="3" t="s">
-        <v>66</v>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="5"/>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="3" t="s">
-        <v>69</v>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="5"/>
+      <c r="I50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="3" t="s">
-        <v>67</v>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="3" t="s">
-        <v>55</v>
+      <c r="D52" s="16"/>
+      <c r="E52" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="5"/>
+      <c r="I52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A43:B50"/>
+  <mergeCells count="27">
+    <mergeCell ref="A43:B53"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C21:D24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="A30:B42"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D38"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A4:B29"/>
+    <mergeCell ref="C4:D8"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:D12"/>
     <mergeCell ref="C14:D16"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="A30:B42"/>
-    <mergeCell ref="C21:D24"/>
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="A4:B29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C36:D38"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D49"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C4:D8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C46:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>